--- a/数据整理/stocks/A股/上证主板/600993-马应龙.xlsx
+++ b/数据整理/stocks/A股/上证主板/600993-马应龙.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005505</t>
+          <t>009069</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源中药研究精选股票A</t>
+          <t>大成睿鑫股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>81.41</t>
+          <t>18.47</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7.96</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7222</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005506</t>
+          <t>000480</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源中药研究精选股票C</t>
+          <t>东方红新动力灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>81.41</t>
+          <t>15.26</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7.96</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5204</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000480</t>
+          <t>005505</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>东方红新动力灵活配置混合</t>
+          <t>前海开源中药研究精选股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.78</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -576,25 +616,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009069</t>
+          <t>009070</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>大成睿鑫股票A</t>
+          <t>大成睿鑫股票C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>82.40</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>3.91</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>10</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009070</t>
+          <t>005506</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>大成睿鑫股票C</t>
+          <t>前海开源中药研究精选股票C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>82.40</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -637,7 +697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,15 +718,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -678,26 +748,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005505</t>
+          <t>008269</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源中药研究精选股票A</t>
+          <t>大成睿享混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>85.03</t>
+          <t>7.14</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>8.23</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1814</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -706,25 +786,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005506</t>
+          <t>005505</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源中药研究精选股票C</t>
+          <t>前海开源中药研究精选股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>85.03</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>8.23</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
       </c>
     </row>
@@ -734,26 +824,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008269</t>
+          <t>005506</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>大成睿享混合A</t>
+          <t>前海开源中药研究精选股票C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>82.62</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -772,15 +872,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>82.62</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>2.54</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600993-马应龙.xlsx
+++ b/数据整理/stocks/A股/上证主板/600993-马应龙.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -897,4 +898,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005505</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0849</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>673020</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>西部利得成长精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005506</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600993-马应龙.xlsx
+++ b/数据整理/stocks/A股/上证主板/600993-马应龙.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1068,4 +1069,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005505</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1812</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005506</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0751</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>673020</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>西部利得成长精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>67.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600993-马应龙.xlsx
+++ b/数据整理/stocks/A股/上证主板/600993-马应龙.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1239,4 +1240,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600993-马应龙.xlsx
+++ b/数据整理/stocks/A股/上证主板/600993-马应龙.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1248,7 +1249,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1259,17 +1260,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1279,14 +1300,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.31</v>
+          <t>002137</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安利鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>49.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9705</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1295,14 +1338,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.18</v>
+          <t>005505</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4686</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1311,14 +1376,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.27</v>
+          <t>005506</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2115</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1327,13 +1414,151 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>673020</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>西部利得成长精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.34</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600993-马应龙.xlsx
+++ b/数据整理/stocks/A股/上证主板/600993-马应龙.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1457,7 +1458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1468,17 +1469,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1488,14 +1509,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.71</v>
+          <t>005505</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9026</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1504,14 +1547,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>005506</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3645</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.31</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="4">
@@ -1520,14 +1653,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.18</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="5">
@@ -1536,14 +1669,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.27</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="6">
@@ -1552,13 +1685,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.34</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600993-马应龙.xlsx
+++ b/数据整理/stocks/A股/上证主板/600993-马应龙.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1590,7 +1591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1601,17 +1602,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1621,14 +1642,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.27</v>
+          <t>005505</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6966</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1637,14 +1680,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>005506</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3151</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>2.71</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="4">
@@ -1653,14 +1786,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.31</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="5">
@@ -1669,14 +1802,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.18</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="6">
@@ -1685,14 +1818,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.27</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="7">
@@ -1701,13 +1834,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>5</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.34</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600993-马应龙.xlsx
+++ b/数据整理/stocks/A股/上证主板/600993-马应龙.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,247 +457,413 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009069</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>大成睿鑫股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>18.47</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>82.40</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.7222</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.01</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000480</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>东方红新动力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>15.26</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.78</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.5204</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.27</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005505</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>前海开源中药研究精选股票A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>81.41</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.96</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0430</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>4</v>
       </c>
+      <c r="D4" t="n">
+        <v>2.71</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009070</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>大成睿鑫股票C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>82.40</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0301</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005506</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>前海开源中药研究精选股票C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>81.41</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7.96</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0271</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>4</v>
       </c>
+      <c r="D7" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.34</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005505</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6966</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005506</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3151</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005505</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9026</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005506</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3645</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -724,7 +890,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -754,36 +920,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008269</t>
+          <t>002137</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>大成睿享混合A</t>
+          <t>诺安利鑫灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.14</t>
+          <t>49.51</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>82.62</t>
+          <t>87.76</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1814</t>
+          <t>1.9705</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -802,26 +968,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>5.85</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.03</t>
+          <t>91.85</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.23</t>
+          <t>8.01</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0477</t>
+          <t>0.4686</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -840,26 +1006,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>85.03</t>
+          <t>91.85</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.23</t>
+          <t>8.01</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0280</t>
+          <t>0.2115</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -868,36 +1034,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008270</t>
+          <t>673020</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>大成睿享混合C</t>
+          <t>西部利得成长精选灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>82.62</t>
+          <t>80.95</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0165</t>
+          <t>0.0592</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -905,7 +1071,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -972,26 +1138,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>86.28</t>
+          <t>85.70</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.84</t>
+          <t>8.16</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0849</t>
+          <t>0.1812</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1000,32 +1166,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>673020</t>
+          <t>005506</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>西部利得成长精选灵活配置混合</t>
+          <t>前海开源中药研究精选股票C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>78.02</t>
+          <t>85.70</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>8.16</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0578</t>
+          <t>0.0751</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1038,36 +1204,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005506</t>
+          <t>673020</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源中药研究精选股票C</t>
+          <t>西部利得成长精选灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>86.28</t>
+          <t>67.31</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.84</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0415</t>
+          <t>0.0511</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1075,7 +1241,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1142,26 +1308,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>85.70</t>
+          <t>86.28</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.16</t>
+          <t>8.84</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1812</t>
+          <t>0.0849</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1170,32 +1336,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005506</t>
+          <t>673020</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源中药研究精选股票C</t>
+          <t>西部利得成长精选灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.70</t>
+          <t>78.02</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.16</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0751</t>
+          <t>0.0578</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1208,36 +1374,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>673020</t>
+          <t>005506</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>西部利得成长精选灵活配置混合</t>
+          <t>前海开源中药研究精选股票C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>67.31</t>
+          <t>86.28</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>8.84</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0511</t>
+          <t>0.0415</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1245,7 +1411,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1272,7 +1438,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1302,36 +1468,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002137</t>
+          <t>008269</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>诺安利鑫灵活配置混合</t>
+          <t>大成睿享混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>49.51</t>
+          <t>7.14</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.76</t>
+          <t>82.62</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.9705</t>
+          <t>0.1814</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1350,26 +1516,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.85</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.85</t>
+          <t>85.03</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.01</t>
+          <t>8.23</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4686</t>
+          <t>0.0477</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1388,26 +1554,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.85</t>
+          <t>85.03</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.01</t>
+          <t>8.23</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2115</t>
+          <t>0.0280</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1416,300 +1582,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>673020</t>
+          <t>008270</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>西部利得成长精选灵活配置混合</t>
+          <t>大成睿享混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>80.95</t>
+          <t>82.62</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0592</t>
+          <t>0.0165</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>005505</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>前海开源中药研究精选股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>11.44</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.95</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.89</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.9026</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005506</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>前海开源中药研究精选股票C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.95</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.89</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3645</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>005505</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>前海开源中药研究精选股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>8.60</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>87.32</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>8.10</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.6966</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005506</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>前海开源中药研究精选股票C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>87.32</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8.10</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3151</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1723,144 +1625,242 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>009069</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7222</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000480</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5204</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.27</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>005505</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>4</v>
       </c>
-      <c r="D4" t="n">
-        <v>2.71</v>
-      </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.31</v>
+          <t>009070</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+          <t>005506</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>4</v>
       </c>
-      <c r="D7" t="n">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>5</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1.34</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600993-马应龙.xlsx
+++ b/数据整理/stocks/A股/上证主板/600993-马应龙.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>1.01</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>2.71</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.31</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.18</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.27</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>5</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.34</v>
       </c>
     </row>
@@ -605,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -666,26 +683,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.60</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.32</t>
+          <t>83.96</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.10</t>
+          <t>7.53</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6966</t>
+          <t>0.3087</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -704,26 +721,178 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.32</t>
+          <t>83.96</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.10</t>
+          <t>7.53</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3151</t>
+          <t>0.2696</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>50.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1292</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>61.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>50.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>61.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -798,26 +967,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11.44</t>
+          <t>8.60</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.95</t>
+          <t>87.32</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.89</t>
+          <t>8.10</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9026</t>
+          <t>0.6966</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -836,26 +1005,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.62</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.95</t>
+          <t>87.32</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.89</t>
+          <t>8.10</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3645</t>
+          <t>0.3151</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -864,6 +1033,138 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005505</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9026</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005506</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3645</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1064,176 +1365,6 @@
       </c>
       <c r="H5" t="n">
         <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>005505</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>前海开源中药研究精选股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>85.70</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>8.16</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1812</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005506</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>前海开源中药研究精选股票C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>85.70</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8.16</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0751</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>673020</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>西部利得成长精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>67.31</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0511</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1308,26 +1439,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>86.28</t>
+          <t>85.70</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.84</t>
+          <t>8.16</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0849</t>
+          <t>0.1812</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1336,32 +1467,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>673020</t>
+          <t>005506</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>西部利得成长精选灵活配置混合</t>
+          <t>前海开源中药研究精选股票C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>78.02</t>
+          <t>85.70</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>8.16</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0578</t>
+          <t>0.0751</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1374,36 +1505,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005506</t>
+          <t>673020</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源中药研究精选股票C</t>
+          <t>西部利得成长精选灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>86.28</t>
+          <t>67.31</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.84</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0415</t>
+          <t>0.0511</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1412,6 +1543,176 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005505</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0849</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>673020</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>西部利得成长精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005506</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1619,7 +1920,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600993-马应龙.xlsx
+++ b/数据整理/stocks/A股/上证主板/600993-马应龙.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.79</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>1.01</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>2.71</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.31</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.18</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>0.27</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,280 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>5</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>1.34</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009069</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7222</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000480</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5204</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005505</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009070</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005506</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -683,26 +946,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>5.93</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>83.96</t>
+          <t>89.03</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.53</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3087</t>
+          <t>0.4566</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -721,26 +984,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>5.12</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>83.96</t>
+          <t>89.03</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.53</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2696</t>
+          <t>0.3942</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -759,26 +1022,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.34</t>
+          <t>6.53</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>50.55</t>
+          <t>53.27</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1292</t>
+          <t>0.1926</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -797,26 +1060,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>61.20</t>
+          <t>61.58</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0541</t>
+          <t>0.0593</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -835,26 +1098,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>50.55</t>
+          <t>53.27</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0307</t>
+          <t>0.0563</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -873,26 +1136,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>61.20</t>
+          <t>61.58</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0025</t>
+          <t>0.0033</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -906,7 +1169,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,26 +1230,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.60</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.32</t>
+          <t>83.96</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.10</t>
+          <t>7.53</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6966</t>
+          <t>0.3087</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1005,26 +1268,178 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.32</t>
+          <t>83.96</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.10</t>
+          <t>7.53</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3151</t>
+          <t>0.2696</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>50.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1292</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>61.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>50.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>61.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1099,26 +1514,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11.44</t>
+          <t>8.60</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.95</t>
+          <t>87.32</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.89</t>
+          <t>8.10</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9026</t>
+          <t>0.6966</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1137,26 +1552,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.62</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.95</t>
+          <t>87.32</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.89</t>
+          <t>8.10</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3645</t>
+          <t>0.3151</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1165,6 +1580,138 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005505</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9026</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005506</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3645</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1365,176 +1912,6 @@
       </c>
       <c r="H5" t="n">
         <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>005505</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>前海开源中药研究精选股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>85.70</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>8.16</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1812</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005506</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>前海开源中药研究精选股票C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>85.70</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8.16</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0751</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>673020</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>西部利得成长精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>67.31</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0511</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1609,26 +1986,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>86.28</t>
+          <t>85.70</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.84</t>
+          <t>8.16</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0849</t>
+          <t>0.1812</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1637,32 +2014,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>673020</t>
+          <t>005506</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>西部利得成长精选灵活配置混合</t>
+          <t>前海开源中药研究精选股票C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>78.02</t>
+          <t>85.70</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>8.16</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0578</t>
+          <t>0.0751</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1675,36 +2052,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005506</t>
+          <t>673020</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源中药研究精选股票C</t>
+          <t>西部利得成长精选灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>86.28</t>
+          <t>67.31</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.84</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0415</t>
+          <t>0.0511</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1713,6 +2090,176 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005505</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0849</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>673020</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>西部利得成长精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005506</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1918,250 +2465,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009069</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>大成睿鑫股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>18.47</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>82.40</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.7222</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000480</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>东方红新动力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>15.26</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.78</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.5204</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005505</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>前海开源中药研究精选股票A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>81.41</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.96</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0430</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009070</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>大成睿鑫股票C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>82.40</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0301</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005506</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>前海开源中药研究精选股票C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>81.41</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7.96</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0271</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>